--- a/database/httpsklubjagiellonskipl.xlsx
+++ b/database/httpsklubjagiellonskipl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B532"/>
+  <dimension ref="A1:B559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6769,6 +6769,330 @@
         </is>
       </c>
     </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/andrzej-kohut/episodes/Omikron-na-wita-i-klska-reform-socjalnych-Bidena-e1c1u58</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Omikron na święta i klęska reform socjalnych Bidena</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/kultura-poswiecona/episodes/Cyberkatolik-a-tajemnica-Wcielenia--Powinnimy-podpala-serwery-czy-uwica-techno-wiat-e1c3n1p</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Cyberkatolik a tajemnica Wcielenia. Powinniśmy podpalać serwery czy uświęcać techno-świat?</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/miedzymiastowo/episodes/Czy-polskie-miasta-potrafi-by-innowacyjne-e1c9qtn</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Czy polskie miasta potrafią być innowacyjne?</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/sceptech/episodes/61-Pozytywna-przyszo-Metaverse--Taka-bez-wirtualnej-rzeczywistoci-e1bjgms</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>#61 Pozytywna przyszłość Metaverse? Taka bez wirtualnej rzeczywistości.</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/22/demograficzni-specjalsi-zawod-rodzic-i-zapasc-edukacji-publicznej-jaka-przyszlosc-czeka-polska-rodzine-i-szkole/</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Długi tekst</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/22/ja-to-nazywam-z-przekasem-troche-takim-chowem-klatkowym-dzieci-podcast/</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Podcast</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/22/jesli-nasi-zachodni-partnerzy-nadal-utrzymaja-swoja-agresywna-postawe-to-podejmiemy-odpowiednie-odwetowe-srodki-wojskowo-techniczne/</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Krótko</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/23/antoni-dudek-sojusz-polski-2050-i-psl-koalicji-polskiej-bylby-prawdziwym-wyzwaniem-dla-tuska/</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Krótko</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/23/miasta-polski-b-to-ofiary-unii-europejskiej-i-transformacji-ustrojowej/</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Opinia</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/23/polska-najwieksza-ofiara-drenazu-mozgow-w-ue-mamy-szanse-odwrocic-ten-trend-kierujac-wzrok-w-strone-azji-i-afryki/</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Opinia</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/23/walka-o-czyste-powietrze-w-sadach-gminy-sie-ociagaja-kolejni-spolecznicy-zapowiadaja-pozwy/</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Krótko</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/24/maryja-dzieciatko-jozef-i-ubogi-zlobek-czego-nie-dostrzegamy-juz-na-obrazach-przedstawiajacych-boze-narodzenie/</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Opinia</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/26/cierpienia-mlodego-wertera-na-reddicie-doomer-tak-naprawde-nie-istnieje/</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Długi tekst</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/26/zodiakary-i-demoniarze-czego-szukamy-w-supermarkecie-wierzen-podcast/</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Podcast</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/27/igrzyska-europejskie-w-krakowie-marnowanie-pieniedzy-na-podrzedna-impreze/</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Opinia</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/27/jaroslaw-nic-nie-moge-kaczynski-i-epoka-impisybilizmu-wokol-weta-andrzeja-dudy-lex-tvn-i-wywiadu-prezesa-pis-w-interii/</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Opinia</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/27/ogloszenie-o-prace-asystent-ka-ds-finansowo-administracyjnych/</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Pilne</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/27/ryszard-bugaj-ida-trudne-czasy-trzeba-odbudowac-trybunal-konstytucyjny-pis-tez-mialby-w-tym-interes/</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Krótko</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/28/belchatow-miasto-ktore-zniknie-bez-zdecydowanej-transformacji-energetycznej-na-ratunek-elektrownia-atomowa/</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Krótko</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/28/pilawa-na-wsi-recykling-i-zero-waste-byly-uprawiane-znacznie-wczesniej-zanim-staly-sie-modne-w-wielkich-miastach/</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Media</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/28/plastikowy-wiedzmin-z-netflixa-i-siwy-bajerant-paulo-sousa-to-ja-juz-wole-polski-pazdzierz-i-michala-zebrowskiego-jako-geralta-skrzetuskiego/</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Opinia</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/29/czy-skuteczna-polityka-mieszkaniowa-jest-w-polsce-mozliwa-muziol-weclawowicz-nykiel/</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Spotkanie</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/29/kupuj-i-naprawiaj-lokalnie-czyli-o-tym-dlaczego-powinnismy-wybierac-miejskich-rzemieslnikow-podcast/</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Podcast</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/29/modernizacja-europy-srodkowej-przez-mocarstwa-polegala-na-wymianie-starych-form-ucisku-na-nowe/</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Rozmowa</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/30/cyberkatolik-a-tajemnica-wcielenia-powinnismy-podpalac-serwery-czy-uswiecac-techno-swiat-podcast/</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Podcast</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/30/fit-for-55-w-obecnym-ksztalcie-stworzy-unie-dwoch-predkosci-z-polska-jako-motoryzacyjnym-smietnikiem-europy/</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Rozmowa</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2021/12/30/od-nowego-roku-wreszcie-wyzsze-mandaty-za-piractwo-na-drogach-poznalismy-nowy-taryfikator/</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Krótko</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsklubjagiellonskipl.xlsx
+++ b/database/httpsklubjagiellonskipl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Code offline\Offline\Git\ACV3\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F9EA57-C607-4C32-9792-E8657EEDE1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365C4078-A4A1-4A08-9B5A-93A197FE3F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="677">
   <si>
     <t>Links</t>
   </si>
@@ -2051,9 +2051,6 @@
   </si>
   <si>
     <t>https://klubjagiellonski.pl/2021/12/30/fit-for-55-w-obecnym-ksztalcie-stworzy-unie-dwoch-predkosci-z-polska-jako-motoryzacyjnym-smietnikiem-europy/</t>
-  </si>
-  <si>
-    <t>https://klubjagiellonski.pl/2021/12/30/od-nowego-roku-wreszcie-wyzsze-mandaty-za-piractwo-na-drogach-poznalismy-nowy-taryfikator/</t>
   </si>
 </sst>
 </file>
@@ -2416,15 +2413,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B558"/>
+  <dimension ref="A1:B557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A522" workbookViewId="0">
-      <selection activeCell="A550" sqref="A550"/>
+    <sheetView tabSelected="1" topLeftCell="A537" workbookViewId="0">
+      <selection activeCell="A566" sqref="A566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="163.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6847,14 +6844,6 @@
         <v>41</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558" t="s">
-        <v>677</v>
-      </c>
-      <c r="B558" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsklubjagiellonskipl.xlsx
+++ b/database/httpsklubjagiellonskipl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Code offline\Offline\Git\ACV3\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365C4078-A4A1-4A08-9B5A-93A197FE3F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA09B0C-9AF6-49BC-A626-56EA4D7A7BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="669">
   <si>
     <t>Links</t>
   </si>
@@ -2027,30 +2027,6 @@
   </si>
   <si>
     <t xml:space="preserve"> span class="catboxbg mobile-hide"/spanspan class="catboxfg"Pilne</t>
-  </si>
-  <si>
-    <t>https://klubjagiellonski.pl/2021/12/27/ryszard-bugaj-ida-trudne-czasy-trzeba-odbudowac-trybunal-konstytucyjny-pis-tez-mialby-w-tym-interes/</t>
-  </si>
-  <si>
-    <t>https://klubjagiellonski.pl/2021/12/28/belchatow-miasto-ktore-zniknie-bez-zdecydowanej-transformacji-energetycznej-na-ratunek-elektrownia-atomowa/</t>
-  </si>
-  <si>
-    <t>https://klubjagiellonski.pl/2021/12/28/pilawa-na-wsi-recykling-i-zero-waste-byly-uprawiane-znacznie-wczesniej-zanim-staly-sie-modne-w-wielkich-miastach/</t>
-  </si>
-  <si>
-    <t>https://klubjagiellonski.pl/2021/12/28/plastikowy-wiedzmin-z-netflixa-i-siwy-bajerant-paulo-sousa-to-ja-juz-wole-polski-pazdzierz-i-michala-zebrowskiego-jako-geralta-skrzetuskiego/</t>
-  </si>
-  <si>
-    <t>https://klubjagiellonski.pl/2021/12/29/czy-skuteczna-polityka-mieszkaniowa-jest-w-polsce-mozliwa-muziol-weclawowicz-nykiel/</t>
-  </si>
-  <si>
-    <t>https://klubjagiellonski.pl/2021/12/29/modernizacja-europy-srodkowej-przez-mocarstwa-polegala-na-wymianie-starych-form-ucisku-na-nowe/</t>
-  </si>
-  <si>
-    <t>https://klubjagiellonski.pl/2021/12/30/cyberkatolik-a-tajemnica-wcielenia-powinnismy-podpalac-serwery-czy-uswiecac-techno-swiat-podcast/</t>
-  </si>
-  <si>
-    <t>https://klubjagiellonski.pl/2021/12/30/fit-for-55-w-obecnym-ksztalcie-stworzy-unie-dwoch-predkosci-z-polska-jako-motoryzacyjnym-smietnikiem-europy/</t>
   </si>
 </sst>
 </file>
@@ -2413,10 +2389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B557"/>
+  <dimension ref="A1:B549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A537" workbookViewId="0">
-      <selection activeCell="A566" sqref="A566"/>
+    <sheetView tabSelected="1" topLeftCell="A534" workbookViewId="0">
+      <selection activeCell="A565" sqref="A565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6780,70 +6756,6 @@
         <v>668</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
-        <v>669</v>
-      </c>
-      <c r="B550" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
-        <v>670</v>
-      </c>
-      <c r="B551" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552" t="s">
-        <v>671</v>
-      </c>
-      <c r="B552" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A553" t="s">
-        <v>672</v>
-      </c>
-      <c r="B553" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A554" t="s">
-        <v>673</v>
-      </c>
-      <c r="B554" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555" t="s">
-        <v>674</v>
-      </c>
-      <c r="B555" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
-        <v>675</v>
-      </c>
-      <c r="B556" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A557" t="s">
-        <v>676</v>
-      </c>
-      <c r="B557" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsklubjagiellonskipl.xlsx
+++ b/database/httpsklubjagiellonskipl.xlsx
@@ -844,687 +844,683 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/2022/01/04/koniec-z-zakupami-w-niedziele-rzad-chce-walczyc-z-fikcyjnymi-punktami-pocztowymi-w-wielkich-sieciach/</t>
+          <t>https://klubjagiellonski.pl/&gt;&lt;i class=</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Obowiązujący zakaz handlu w niedzielę stopniowo stawał się fikcją. Kolejne sieci handlowe obchodziły przepisy, wprowadzając do oferty usługi pocztowe. Ten wyłom w przepisach został właśnie uregulowany.</t>
+          <t>10 tematów Klubu Jagiellońskiego</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/&gt;&lt;i class=</t>
+          <t>https://klubjagiellonski.pl/category/english/</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10 tematów Klubu Jagiellońskiego</t>
+          <t>English</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/category/english/</t>
+          <t>https://klubjagiellonski.pl/category/spiecie/</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Spięcie</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/category/spiecie/</t>
+          <t>https://klubjagiellonski.pl/czytaj-regularnie/</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Spięcie</t>
+          <t>Czytaj regularnie</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/czytaj-regularnie/</t>
+          <t>https://klubjagiellonski.pl/kalkulator-darowizn/</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Czytaj regularnie</t>
+          <t>Kalkulator darowizn</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/kalkulator-darowizn/</t>
+          <t>https://klubjagiellonski.pl/kategoria_publikacji/pressje/</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Kalkulator darowizn</t>
+          <t>Najnowsze Pressje</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/kategoria_publikacji/pressje/</t>
+          <t>https://klubjagiellonski.pl/kategoria_publikacji/raporty/</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Najnowsze Pressje</t>
+          <t>Najnowsze raporty</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/kategoria_publikacji/raporty/</t>
+          <t>https://klubjagiellonski.pl/kontakt/</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Najnowsze raporty</t>
+          <t>Kontakt dla mediów</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/kontakt/</t>
+          <t>https://klubjagiellonski.pl/ludzie/</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Kontakt dla mediów</t>
+          <t>Ludzie</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/ludzie/</t>
+          <t>https://klubjagiellonski.pl/o-klubie-jagiellonskim/</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ludzie</t>
+          <t>O Klubie Jagiellońskim</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/o-klubie-jagiellonskim/</t>
+          <t>https://klubjagiellonski.pl/o-klubie-jagiellonskim/about-the-jagiellonian-club-english/</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>O Klubie Jagiellońskim</t>
+          <t>About the Jagiellonian Club [ENGLISH]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/o-klubie-jagiellonskim/about-the-jagiellonian-club-english/</t>
+          <t>https://klubjagiellonski.pl/o-klubie-jagiellonskim/dane-dokumenty-i-sprawozdania/</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>About the Jagiellonian Club [ENGLISH]</t>
+          <t>Dane, dokumenty i sprawozdania</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/o-klubie-jagiellonskim/dane-dokumenty-i-sprawozdania/</t>
+          <t>https://klubjagiellonski.pl/o-klubie-jagiellonskim/krotka-historia/</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Dane, dokumenty i sprawozdania</t>
+          <t>Krótka historia</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/o-klubie-jagiellonskim/krotka-historia/</t>
+          <t>https://klubjagiellonski.pl/oddzialy/gdansk/</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Krótka historia</t>
+          <t>Gdańsk</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/oddzialy/gdansk/</t>
+          <t>https://klubjagiellonski.pl/oddzialy/katowice/</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Gdańsk</t>
+          <t>Katowice</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/oddzialy/katowice/</t>
+          <t>https://klubjagiellonski.pl/oddzialy/krakow/</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Katowice</t>
+          <t>Kraków</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/oddzialy/krakow/</t>
+          <t>https://klubjagiellonski.pl/oddzialy/oddzial-wroclaw/</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Kraków</t>
+          <t>Wrocław</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/oddzialy/oddzial-wroclaw/</t>
+          <t>https://klubjagiellonski.pl/oddzialy/poznan/</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Wrocław</t>
+          <t>Poznań</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/oddzialy/poznan/</t>
+          <t>https://klubjagiellonski.pl/oddzialy/warszawa/</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Poznań</t>
+          <t>Warszawa</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/oddzialy/warszawa/</t>
+          <t>https://klubjagiellonski.pl/onclick=</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Warszawa</t>
+          <t xml:space="preserve">  Znajdź</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/onclick=</t>
+          <t>https://klubjagiellonski.pl/page/2/</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Znajdź</t>
+          <t>Następna strona »</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/page/2/</t>
+          <t>https://klubjagiellonski.pl/podcasty/</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Następna strona »</t>
+          <t xml:space="preserve">Podcasty </t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/podcasty/</t>
+          <t>https://klubjagiellonski.pl/polityka-prywatnosci-i-regulamin/</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Podcasty </t>
+          <t>Polityka prywatności</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/polityka-prywatnosci-i-regulamin/</t>
+          <t>https://klubjagiellonski.pl/projekty/akademia-nowoczesnego-patriotyzmu/</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Polityka prywatności</t>
+          <t>Akademia Nowoczesnego Patriotyzmu</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/projekty/akademia-nowoczesnego-patriotyzmu/</t>
+          <t>https://klubjagiellonski.pl/projekty/aplikacja-pola/</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Akademia Nowoczesnego Patriotyzmu</t>
+          <t>Aplikacja Pola</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/projekty/aplikacja-pola/</t>
+          <t>https://klubjagiellonski.pl/projekty/centrum-analiz/</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Aplikacja Pola</t>
+          <t>Centrum Analiz</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/projekty/centrum-analiz/</t>
+          <t>https://klubjagiellonski.pl/projekty/lokalna-osr/</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Centrum Analiz</t>
+          <t>Lokalna OSR</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/projekty/lokalna-osr/</t>
+          <t>https://klubjagiellonski.pl/projekty/nawigator-legislacyjny-narzedzie-wsparcia-dla-biznesu/</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Lokalna OSR</t>
+          <t>Nawigator Legislacyjny – narzędzie wsparcia dla biznesu</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/projekty/nawigator-legislacyjny-narzedzie-wsparcia-dla-biznesu/</t>
+          <t>https://klubjagiellonski.pl/projekty/noc-ksiazki/</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Nawigator Legislacyjny – narzędzie wsparcia dla biznesu</t>
+          <t>Noc Książki</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/projekty/noc-ksiazki/</t>
+          <t>https://klubjagiellonski.pl/projekty/oferta-biznesowa-centrum-analiz-klubu-jagiellonskiego/</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Noc Książki</t>
+          <t>Oferta biznesowa Centrum Analiz Klubu Jagiellońskiego</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/projekty/oferta-biznesowa-centrum-analiz-klubu-jagiellonskiego/</t>
+          <t>https://klubjagiellonski.pl/projekty/pressje/</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Oferta biznesowa Centrum Analiz Klubu Jagiellońskiego</t>
+          <t>Pressje</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/projekty/pressje/</t>
+          <t>https://klubjagiellonski.pl/projekty/v4-and-germany-round-table/</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Pressje</t>
+          <t>V4 and Germany Round Table</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/projekty/v4-and-germany-round-table/</t>
+          <t>https://klubjagiellonski.pl/publikacje/</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>V4 and Germany Round Table</t>
+          <t>Publikacje</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/publikacje/</t>
+          <t>https://klubjagiellonski.pl/publikacje/liderzy-swiadomej-konsumpcji-najczesciej-skanowane-firmy-aplikacji-pola/</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Publikacje</t>
+          <t>Liderzy świadomej konsumpcji. Najczęściej skanowane firmy aplikacji Pola</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/publikacje/liderzy-swiadomej-konsumpcji-najczesciej-skanowane-firmy-aplikacji-pola/</t>
+          <t>https://klubjagiellonski.pl/publikacje/nowy-strategiczny-lad-transformacja-zachodu-a-bezpieczenstwo-polski/</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Liderzy świadomej konsumpcji. Najczęściej skanowane firmy aplikacji Pola</t>
+          <t>Nowy strategiczny ład. Transformacja Zachodu a bezpieczeństwo Polski</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/publikacje/nowy-strategiczny-lad-transformacja-zachodu-a-bezpieczenstwo-polski/</t>
+          <t>https://klubjagiellonski.pl/publikacje/praca-ludzka/</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Nowy strategiczny ład. Transformacja Zachodu a bezpieczeństwo Polski</t>
+          <t>Praca ludzka</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/publikacje/praca-ludzka/</t>
+          <t>https://klubjagiellonski.pl/publikacje/przemilczane-nierownosci-o-problemach-mezczyzn-w-polsce/</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Praca ludzka</t>
+          <t>Przemilczane nierówności. O problemach mężczyzn w Polsce</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/publikacje/przemilczane-nierownosci-o-problemach-mezczyzn-w-polsce/</t>
+          <t>https://klubjagiellonski.pl/publikacje/teka-57-nowa-chadecja/</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Przemilczane nierówności. O problemach mężczyzn w Polsce</t>
+          <t>Teka 57: Nowa chadecja</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/publikacje/teka-57-nowa-chadecja/</t>
+          <t>https://klubjagiellonski.pl/publikacje/teka-58-pobozny-antyklerykalizm/</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Teka 57: Nowa chadecja</t>
+          <t>Teka 58: Pobożny antyklerykalizm</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/publikacje/teka-58-pobozny-antyklerykalizm/</t>
+          <t>https://klubjagiellonski.pl/publikacje/zielony-ascetyzm/</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Teka 58: Pobożny antyklerykalizm</t>
+          <t>Zielony ascetyzm</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/publikacje/zielony-ascetyzm/</t>
+          <t>https://klubjagiellonski.pl/publikacje/zielony-konserwatyzm-wyzwania-i-rekomendacje-w-10-kluczowych-obszarach/</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Zielony ascetyzm</t>
+          <t>Zielony konserwatyzm. Wyzwania i rekomendacje w 10 kluczowych obszarach</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/publikacje/zielony-konserwatyzm-wyzwania-i-rekomendacje-w-10-kluczowych-obszarach/</t>
+          <t>https://klubjagiellonski.pl/role=</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Zielony konserwatyzm. Wyzwania i rekomendacje w 10 kluczowych obszarach</t>
+          <t>Zamknij</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/role=</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Zamknij</t>
-        </is>
-      </c>
+          <t>https://klubjagiellonski.pl/target=</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/target=</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr"/>
+          <t>https://klubjagiellonski.pl/temat/architektura-spoleczna/</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Architektura społeczna</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/temat/architektura-spoleczna/</t>
+          <t>https://klubjagiellonski.pl/temat/kultura-nieoczywista/</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Architektura społeczna</t>
+          <t>Kultura nieoczywista</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/temat/kultura-nieoczywista/</t>
+          <t>https://klubjagiellonski.pl/temat/miedzymiastowo/</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Kultura nieoczywista</t>
+          <t>Międzymiastowo</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/temat/miedzymiastowo/</t>
+          <t>https://klubjagiellonski.pl/temat/nowa-chadecja/</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Międzymiastowo</t>
+          <t>Nowa Chadecja</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/temat/nowa-chadecja/</t>
+          <t>https://klubjagiellonski.pl/temat/panstwo-na-powaznie/</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Nowa Chadecja</t>
+          <t>Państwo na poważnie</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/temat/panstwo-na-powaznie/</t>
+          <t>https://klubjagiellonski.pl/temat/podmiotowa-gospodarka/</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Państwo na poważnie</t>
+          <t>Podmiotowa gospodarka</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/temat/podmiotowa-gospodarka/</t>
+          <t>https://klubjagiellonski.pl/temat/polityka-republikanska/</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Podmiotowa gospodarka</t>
+          <t>Polityka republikańska</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/temat/polityka-republikanska/</t>
+          <t>https://klubjagiellonski.pl/temat/polska-na-mapie/</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Polityka republikańska</t>
+          <t>Polska na mapie</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/temat/polska-na-mapie/</t>
+          <t>https://klubjagiellonski.pl/temat/techno-republikanizm/</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Polska na mapie</t>
+          <t>Techno-republikanizm</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/temat/techno-republikanizm/</t>
+          <t>https://klubjagiellonski.pl/temat/zielony-konserwatyzm/</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Techno-republikanizm</t>
+          <t>Zielony konserwatyzm</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/temat/zielony-konserwatyzm/</t>
+          <t>https://klubjagiellonski.pl/tematy/</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Zielony konserwatyzm</t>
+          <t>Przegląd tematów</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/tematy/</t>
+          <t>https://klubjagiellonski.pl/wesprzyj-nas/</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Przegląd tematów</t>
+          <t>Wesprzyj nas</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/wesprzyj-nas/</t>
+          <t>https://klubjagiellonski.pl/zbiorka/wesprzyj-nas/</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Wesprzyj nas</t>
+          <t>Wspieram</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl/zbiorka/wesprzyj-nas/</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Wspieram</t>
-        </is>
-      </c>
+          <t>https://klubjagiellonski.pl</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://klubjagiellonski.pl</t>
+          <t>https://twitter.com/klubjagiellonsk</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -1532,7 +1528,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://twitter.com/klubjagiellonsk</t>
+          <t>https://www.facebook.com/KJagiellonski/</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
@@ -1540,10 +1536,14 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/KJagiellonski/</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
+          <t>https://klubjagiellonski.pl/2022/01/04/koniec-z-zakupami-w-niedziele-rzad-chce-walczyc-z-fikcyjnymi-punktami-pocztowymi-w-wielkich-sieciach/</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Obowiązujący zakaz handlu w niedzielę stopniowo stawał się fikcją. Kolejne sieci handlowe obchodziły przepisy, wprowadzając do oferty usługi pocztowe. Ten wyłom w przepisach został właśnie uregulowany.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/database/httpsklubjagiellonskipl.xlsx
+++ b/database/httpsklubjagiellonskipl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1917,6 +1917,466 @@
         </is>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/klub-jagiellonski/episodes/Co-wojna-zmienia-w-polskiej-polityce--Silniejszy-PiS--zdeterminowana-opozycja--ruskie-onuce-i-Twoje-emocje--Piotr-Trudnowski--KluboTygodnik-e1fk7ec</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Co wojna zmienia w polskiej polityce? Silniejszy PiS, zdeterminowana opozycja, ruskie onuce i Twoje emocje | Piotr Trudnowski | KluboTygodnik</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/kultura-poswiecona/episodes/Wyrzuci-Dostojewskiego-czy-modli-si-za-Putina--Kazanie-na-Grze-i-wojna-na-Ukrainie-e1fihe5</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Wyrzucić Dostojewskiego czy modlić się za Putina? Kazanie na Górze i wojna na Ukrainie</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/miedzymiastowo/episodes/Trby-powietrzne--tornada-i-byskawiczne-powodzie--Jak-przygotowa-miasta-na-zmiany-klimatu-e1f72qv</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Trąby powietrzne, tornada i błyskawiczne powodzie. Jak przygotować miasta na zmiany klimatu?</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/s/17471438/podcast/play/48515359/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-2-3%2F251658694-44100-2-9fc1071061a01.m4a</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/s/18b50320/podcast/play/48936095/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-2-12%2Fec34da2e-d98e-5885-2e8e-417e4a74b7e4.mp3</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/s/322771a8/podcast/play/47793931/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-1-17%2Fea93f48f-130d-5a68-99b2-b28a8a26669f.mp3</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/s/4a321b04/podcast/play/48890757/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-2-11%2F253127666-44100-2-ae0b71ac9f98d.m4a</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/s/6f858d8c/podcast/play/48946060/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-2-12%2F253346188-44100-2-549d87401e20e.m4a</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/sceptech/episodes/70-Internet-pomaga-Ukrainie-wygra-wojn-e1fjtmv</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>#70 Internet pomaga Ukrainie wygrać wojnę</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/1_procent_dla_klubu_jagiellonskiego/</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/03/08/sankcje-mozna-jeszcze-rozszerzyc-32-rekomendacje-jak-uderzyc-w-rosyjska-i-bialoruska-gospodarke/</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Zachód nie może zatrzymać się na dotychczasowych sankcjach. Co więcej, powinny one dotykać nie tylko Rosję, ale też i Białoruś, która jest faktycznym przedłużeniem polityki Putina. Radykalne sankcje w zakresie handlu uderzą w zdolność do prowadzenia wojny przez obydwa państwa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/03/09/egotycy-prymusi-moralne-narcyzy-niemcy-chca-byc-jak-sw-piotr/</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Niemcy są narodem egotycznym. Chcą być podziwiani i uważani za punkt odniesienia. Jednocześnie jest to naród mający wielką trudność z myśleniem w kategoriach globalnych. Dlatego obecny zwrot w polityce niemieckiej może okazać się tylko chwilową pozą.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/03/09/sokolowski-imperialny-cien-iwana-groznego-i-ruski-mir-ukraina-podwaza-cel-i-sens-istnienia-rosji/</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Istnienie Rosji ma sens, dopóki może ona spełniać swoją misję dziejową. Mitologia wielkiej wojny ojczyźnianej jest jednym z centralnych punktów ideologii stworzonej przez Putina. Ukraina odmawiając Rosji podległości zaprzecza tożsamości przyjmowanej przez Rosję.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/03/10/rosyjskie-czolgi-za-zachodnie-pieniadze-jak-odciac-europejska-energetyke-od-rosyjskich-surowcow/</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Rosyjska inwazja na Ukrainie spotkała się ze zdecydowaną reakcją Zachodu i wprowadzeniem gospodarczych sankcji na wielką skalę. Trwają zaawansowane negocjacje nad sferą, którą poważne ekonomiczne uderzenie do tej pory ominęło – import surowców energetycznych.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/03/10/wojna-na-ukrainie-koniec-katolickiego-pacyfizmu-i-patriotyzmu-bez-broni-podcast/</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>W nocy 24 lutego prezydent Władimir Putin zerwał kurtynę, na której Zachód przez lata wyświetlał senne marzenia o świecie bez przemocy. Świecie, w którym zamiast o egzystencję, „walczyć” jedynie można o prawa jednostek.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/03/11/bp-shell-i-exxon-mobil-zakonczyly-wspolprace-z-rosyjskimi-firmami-niemcy-niekoniecznie/</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Wiele przedsiębiorstw wycofuje się z działalności w Rosji, ogranicza jej skalę, lub przestaje obsługiwać klientów z Rosji. Jaka była reakcja energetyki, najbardziej dochodowego sektora dla rosyjskiego budżetu?</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/03/12/putin-zdemaskowal-utopijnosc-pacyfizmu-papieza-franciszka-czas-na-powrot-katolickiej-etyki-wojny/</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Od pewnego czasu w wielu środowiskach chrześcijańskich przyswajane zaczęło być wyrastające ze świeckich tendencji humanitarystycznych stanowisko pacyfistyczne. Znalazło to swoje odzwierciedlenie w encyklice papieża Franciszka – Fratelli tutti.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/03/14/bez-zludzen-ukrainofilow-dlaczego-ukrainska-niepodleglosc-jest-w-geopolitycznym-interesie-polski/</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Bez złudzeń ukrainofilów. Dlaczego ukraińska niepodległość jest w geopolitycznym interesie Polski?</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/03/15/opozycja-bedzie-probowala-odrzec-pis-z-godnosci-lidera-proukrainskiego-frontu/</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Sytuacje kryzysowe pociągają za sobą efekt flagi. Ludzie naturalnie skupiają się wokół rządzących, którzy w takich okolicznościach mogą zyskać duży kapitał polityczny. Jednak w Polsce ten efekt będzie chwilowy. Wkrótce znów wrócimy do wojny polsko-polskiej.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/03/15/sciagniemy-ukrainskie-firmy-do-polski-nasze-instytucje-podejmuja-pierwsze-dzialania/</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Polskie firmy zamrażają działalność na Ukrainie, Białorusi i w Rosji. Jednocześnie polskie instytucje odpowiedzialne za wsparcie biznesu podejmują działania pomocowe skierowane do polskich i zagranicznych firm funkcjonujących w tych trzech krajach.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/03/16/ani-dla-sondazy-ani-dla-symbolicznej-powtorki-gestu-brata-kaczynski-pojechal-do-kijowa-bo-chce-przelamac-geograficzne-fatum-video/</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Piotr Trudnowski, prezes Klubu Jagiellońskiego, w najnowszym KluboTygodniku komentuje wyprawę polskich polityków oraz premierów Czech i Słowenii do Kijowa</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/03/16/homo-smartphonus-idzie-do-pracy-czy-kapitalizm-dostosuje-sie-do-pokolenia-instagrama/</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Homo smartphonus idzie do pracy. Czy kapitalizm dostosuje się do pokolenia Instagrama?</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/03/16/rekrutacja-na-seminarium-ekonomiczne-centrum-analiz-kj/</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Wypełnij formularz zgłoszeniowy i dołącz do wybranych osób, które w tracie pięciu seminariów tematycznych zgłębią swoją wiedzę na temat ekonomii oraz skonfrontują poglądy z innymi uczestnikami oraz zaproszonymi ekspertami.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/03/16/traby-powietrzne-tornada-i-blyskawiczne-powodzie-jak-przygotowac-miasta-na-zmiany-klimatu-podcast/</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Klimat się zmienia. Coraz częściej obserwujemy ekstremalne zjawiska pogodowe. Nasze miasta zaś budowano wówczas, gdy te ekstrema były rzadkością. Jak przystosować je do nowych warunków?</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/wesprzyj-ukrainska-armie/</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://twitter.com/intent/tweet?url=https%3A%2F%2Fanchor.fm%2Fandrzej-kohut%2Fepisodes%2FCzy-z-Trumpem-Polska-bya-bezpieczniejsza-e1eh2ab&amp;amp;text=Czy%20z%20Trumpem%20Polska%20by%C5%82a%20bezpieczniejsza%3F</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://twitter.com/intent/tweet?url=https%3A%2F%2Fanchor.fm%2Fklub-jagiellonski%2Fepisodes%2FCo-wojna-zmienia-w-polskiej-polityce--Silniejszy-PiS--zdeterminowana-opozycja--ruskie-onuce-i-Twoje-emocje--Piotr-Trudnowski--KluboTygodnik-e1fk7ec&amp;amp;text=Co%20wojna%20zmienia%20w%20polskiej%20polityce%3F%20Silniejszy%20PiS%2C%20zdeterminowana%20opozycja%2C%20ruskie%20onuce%20i%20Twoje%20emocje%20%7C%20Piotr%20Trudnowski%20%7C%20KluboTygodnik</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://twitter.com/intent/tweet?url=https%3A%2F%2Fanchor.fm%2Fkultura-poswiecona%2Fepisodes%2FWyrzuci-Dostojewskiego-czy-modli-si-za-Putina--Kazanie-na-Grze-i-wojna-na-Ukrainie-e1fihe5&amp;amp;text=Wyrzuci%C4%87%20Dostojewskiego%20czy%20modli%C4%87%20si%C4%99%20za%20Putina%3F%20Kazanie%20na%20G%C3%B3rze%20i%20wojna%20na%20Ukrainie</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://twitter.com/intent/tweet?url=https%3A%2F%2Fanchor.fm%2Fmiedzymiastowo%2Fepisodes%2FTrby-powietrzne--tornada-i-byskawiczne-powodzie--Jak-przygotowa-miasta-na-zmiany-klimatu-e1f72qv&amp;amp;text=Tr%C4%85by%20powietrzne%2C%20tornada%20i%20b%C5%82yskawiczne%20powodzie.%20Jak%20przygotowa%C4%87%20miasta%20na%20zmiany%20klimatu%3F</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://twitter.com/intent/tweet?url=https%3A%2F%2Fanchor.fm%2Fsceptech%2Fepisodes%2F70-Internet-pomaga-Ukrainie-wygra-wojn-e1fjtmv&amp;amp;text=%2370%20Internet%20pomaga%20Ukrainie%20wygra%C4%87%20wojn%C4%99</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/sharer.php?u=https%3A%2F%2Fanchor.fm%2Fandrzej-kohut%2Fepisodes%2FCzy-z-Trumpem-Polska-bya-bezpieczniejsza-e1eh2ab</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/sharer.php?u=https%3A%2F%2Fanchor.fm%2Fklub-jagiellonski%2Fepisodes%2FCo-wojna-zmienia-w-polskiej-polityce--Silniejszy-PiS--zdeterminowana-opozycja--ruskie-onuce-i-Twoje-emocje--Piotr-Trudnowski--KluboTygodnik-e1fk7ec</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/sharer.php?u=https%3A%2F%2Fanchor.fm%2Fkultura-poswiecona%2Fepisodes%2FWyrzuci-Dostojewskiego-czy-modli-si-za-Putina--Kazanie-na-Grze-i-wojna-na-Ukrainie-e1fihe5</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/sharer.php?u=https%3A%2F%2Fanchor.fm%2Fmiedzymiastowo%2Fepisodes%2FTrby-powietrzne--tornada-i-byskawiczne-powodzie--Jak-przygotowa-miasta-na-zmiany-klimatu-e1f72qv</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/sharer.php?u=https%3A%2F%2Fanchor.fm%2Fsceptech%2Fepisodes%2F70-Internet-pomaga-Ukrainie-wygra-wojn-e1fjtmv</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/shareArticle?mini=true&amp;amp;url=https%3A%2F%2Fanchor.fm%2Fandrzej-kohut%2Fepisodes%2FCzy-z-Trumpem-Polska-bya-bezpieczniejsza-e1eh2ab</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/shareArticle?mini=true&amp;amp;url=https%3A%2F%2Fanchor.fm%2Fklub-jagiellonski%2Fepisodes%2FCo-wojna-zmienia-w-polskiej-polityce--Silniejszy-PiS--zdeterminowana-opozycja--ruskie-onuce-i-Twoje-emocje--Piotr-Trudnowski--KluboTygodnik-e1fk7ec</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/shareArticle?mini=true&amp;amp;url=https%3A%2F%2Fanchor.fm%2Fkultura-poswiecona%2Fepisodes%2FWyrzuci-Dostojewskiego-czy-modli-si-za-Putina--Kazanie-na-Grze-i-wojna-na-Ukrainie-e1fihe5</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/shareArticle?mini=true&amp;amp;url=https%3A%2F%2Fanchor.fm%2Fmiedzymiastowo%2Fepisodes%2FTrby-powietrzne--tornada-i-byskawiczne-powodzie--Jak-przygotowa-miasta-na-zmiany-klimatu-e1f72qv</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/shareArticle?mini=true&amp;amp;url=https%3A%2F%2Fanchor.fm%2Fsceptech%2Fepisodes%2F70-Internet-pomaga-Ukrainie-wygra-wojn-e1fjtmv</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/klub-jagiellonski/episodes/Kaczyski-i-Morawiecki-w-Kijowie--Zeenski-w-Sejmie--PO-CO--Wyprawa-kijowska-2022-roku--Piotr-Trudnowski--KluboTygodnik-e1fpspn</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Kaczyński i Morawiecki w Kijowie, Zełenski w Sejmie. PO CO? Wyprawa kijowska 2022 roku | Piotr Trudnowski | KluboTygodnik</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/s/6f858d8c/podcast/play/49131767/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-2-16%2F269012b4-8239-a9e9-4caa-710df63f50c4.mp3</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/03/17/unijne-miliardy-przepalane-na-bezmyslne-modernizacje-linii-kolejowych/</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Karol Trammer analizuje sensowność polskich inwestycji kolejowych z ostatnich lat</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/03/17/wyrzucic-dostojewskiego-czy-modlic-sie-za-putina-kazanie-na-gorze-i-wojna-na-ukrainie-podcast/</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>W dzisiejszym odcinku Kultury Poświęconej rozmawiamy o bojkocie rosyjskiej kultury i ewangelicznej miłości nieprzyjaciół</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://twitter.com/intent/tweet?url=https%3A%2F%2Fanchor.fm%2Fklub-jagiellonski%2Fepisodes%2FKaczyski-i-Morawiecki-w-Kijowie--Zeenski-w-Sejmie--PO-CO--Wyprawa-kijowska-2022-roku--Piotr-Trudnowski--KluboTygodnik-e1fpspn&amp;amp;text=Kaczy%C5%84ski%20i%20Morawiecki%20w%20Kijowie%2C%20Ze%C5%82enski%20w%20Sejmie.%20PO%20CO%3F%20Wyprawa%20kijowska%202022%20roku%20%7C%20Piotr%20Trudnowski%20%7C%20KluboTygodnik</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/sharer.php?u=https%3A%2F%2Fanchor.fm%2Fklub-jagiellonski%2Fepisodes%2FKaczyski-i-Morawiecki-w-Kijowie--Zeenski-w-Sejmie--PO-CO--Wyprawa-kijowska-2022-roku--Piotr-Trudnowski--KluboTygodnik-e1fpspn</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/shareArticle?mini=true&amp;amp;url=https%3A%2F%2Fanchor.fm%2Fklub-jagiellonski%2Fepisodes%2FKaczyski-i-Morawiecki-w-Kijowie--Zeenski-w-Sejmie--PO-CO--Wyprawa-kijowska-2022-roku--Piotr-Trudnowski--KluboTygodnik-e1fpspn</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsklubjagiellonskipl.xlsx
+++ b/database/httpsklubjagiellonskipl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B172"/>
+  <dimension ref="A1:B274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2377,6 +2377,1134 @@
       </c>
       <c r="B172" t="inlineStr"/>
     </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="" onclick="</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Zamknij</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="" role="</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Zamknij</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href=""&gt;&lt;i class="</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Klub Jagielloński</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="#"</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Copied</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="/category/english/"</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Po angielsku</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="/category/spiecie/"</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Spięcie</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="/czytaj-regularnie/"</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Czytaj regularnie</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="/kategoria_publikacji/pressje/"</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Najnowsze Pressje</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="/kategoria_publikacji/raporty/"</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Najnowsze raporty</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="/kontakt/"</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Kontakt dla mediów</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="/ludzie/"</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Ludzie</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="/podcasty/"</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Podcasty</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="/wesprzyj-nas/"</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Wesprzyj nas</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://anchor.fm/andrzej-kohut"</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Otwórz player w nowym oknie</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://anchor.fm/andrzej-kohut/episodes/Co-Amerykanie-sdz-o-wojnie-na-Ukrainie-e1gfagb"</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Co Amerykanie sądzą o wojnie na Ukrainie?</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://anchor.fm/klub-jagiellonski/"</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Otwórz player w nowym oknie</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://anchor.fm/klub-jagiellonski/episodes/Kaczyski-i-Morawiecki-w-Kijowie--Zeenski-w-Sejmie--PO-CO--Wyprawa-kijowska-2022-roku--Piotr-Trudnowski--KluboTygodnik-e1fpspn"</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Kaczyński i Morawiecki w Kijowie, Zełenski w Sejmie. PO CO? Wyprawa kijowska 2022 roku | Piotr Trudnowski | KluboTygodnik</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://anchor.fm/kultura-poswiecona"</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Otwórz player w nowym oknie</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://anchor.fm/kultura-poswiecona/episodes/Czy-papie-zachowuje-si-jak-ruski-agent--Prawosawie-a-ekumenizm-e1gj4vi"</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Czy papież zachowuje się jak ruski agent? Prawosławie a ekumenizm</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://anchor.fm/miedzymiastowo"</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Otwórz player w nowym oknie</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://anchor.fm/miedzymiastowo/episodes/Czy-millenialsi-maj-gdzie-mieszka--Opowie-o-rynku-mieszkaniowym-z-perspektywy-modych-ludzi-e1f6i9j"</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Czy millenialsi mają gdzie mieszkać? Opowieść o rynku mieszkaniowym z perspektywy młodych ludzi</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://anchor.fm/s/17471438/podcast/play/48498419/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-2-3%2F251590988-44100-2-1b3b5084286f6.m4a"</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://anchor.fm/s/18b50320/podcast/play/50042776/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-3-3%2F69aae8e4-d0e5-ce72-93a8-b43e308618b6.mp3"</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://anchor.fm/s/322771a8/podcast/play/49833931/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-2-30%2F2973e8e8-ba96-edc2-dece-3c409804992f.mp3"</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://anchor.fm/s/4a321b04/podcast/play/49959346/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-3-1%2F257315665-44100-2-576b2e1ecf958.m4a"</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://anchor.fm/s/6f858d8c/podcast/play/49131767/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-2-16%2F269012b4-8239-a9e9-4caa-710df63f50c4.mp3"</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://anchor.fm/sceptech"</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Otwórz player w nowym oknie</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://anchor.fm/sceptech/episodes/72-Rosja-jest-uzaleniona-od-importu-technologii--Czy-wynajdzie-koo-na-nowo--Iwona-Winiewska-e1glmeo"</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>#72 Rosja jest uzależniona od importu technologii. Czy wynajdzie koło na nowo? [Iwona Wiśniewska]</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl"</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/1_procent_dla_klubu_jagiellonskiego/"</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/03/22/kwiat-jabloni-jaka-filozofie-skrywaja-teksty-ich-piosenek-podcast/"</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Martin Heidegger, Carl Gustav Jung i filozofia dialogu jako intelektualne podglebie tekstów Kwiatu Jabłoni? Konstanty Pilawa, Piotr Kaszczyszyn i Bartosz Brzyski odkrywają zaskakujące źródła twórczości rodzeństwa Sienkiewiczów.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/03/23/zanieczyszczenie-swiatlem-w-miastach-szkodzi-naszemu-zdrowiu-podobnie-jak-smog-podcast/"</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Zanieczyszczenie światłem powoduje nie tylko to, że nie możemy w miastach zobaczyć gwiazd na nocnym niebie. Ma ono również konkretne skutki dla zdrowia, a wśród nich depresje, zwiększone ryzyko nadwagi, choroby Alzheimera i zaburzenia snu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/03/24/rokita-kolejna-arena-starcia-rosji-z-zachodem-moze-byc-polska/"</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Tylko scenariusz zwycięstwa Zachodu na Ukrainie daje Polsce nadzieję na utrzymanie pokoju. Scenariusz długiej wojny pozycyjnej oznacza wzrost nerwowości globalnej polityki. Od tego zaś niedaleko do prowokacji. Zaś od prowokacji - do wojny w Polsce.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/03/24/spirala-placowo-inflacyjna-w-lutym-zarobki-polakow-rosly-szybciej-niz-inflacja/"</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Jeszcze w styczniu NBP przewidywał, że historycznie wysoka presja na wzrost płac spadnie. A jednak przeciętne wynagrodzenie w sektorze przedsiębiorstw w lutym 2022 r. wzrosło znacznie wyżej od tych prognozowanych, a poziom zatrudnienia przebił ten sprzed pandemii.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/03/25/skuteczne-sankcje-na-rosyjskich-oligarchow-bez-uderzenia-w-raje-podatkowe-to-sie-nie-uda/"</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Aby kosztów sankcji nie ponosili realnie tylko przeciętni rosyjscy obywatele, eksperci z ośrodka badawczego World Inequality Lab rekomendują stworzenie Europejskiego Rejestru Aktywów, który ma pozwolić mocniej i precyzyjniej uderzyć w oligarchów.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/03/25/w-ue-produkujemy-miliardy-ton-odpadow-rocznie-czy-mozemy-stac-sie-spoleczenstwem-recyklingu/"</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>W 2020 r. Komisja Europejska przedstawiła nowy plan dotyczący gospodarki o obiegu zamkniętym (GOZ), który stał się kluczowym elementem zielonej transformacji. W pierwszej kolejności należy podejmować działania mające na celu zapobieganie powstawaniu odpadów.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/03/27/houellebecq-gardzi-kobietami-a-moze-to-wina-liberalizmu-seksualnego/"</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Kiedy Inga Iwasiów pisze, że Michel Houellebecq jest niegościnny, ponieważ „nie próbuje dać czytelniczkom okazji do dobrego nastroju”, wyraża zawód sporej części polskich intelektualistek. Pytanie jednak brzmi: po co w ogóle miałby próbować?</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/03/28/bayraktary-podbijaja-ukrainskie-niebo-skad-wynika-sukces-tureckiej-branzy-dronow/"</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Tureckie drony Bayraktar TB2 stały się sławne dzięki wojnie na Ukrainie. Ich powstanie to wynik lat inwestycji Ankary w rodzimy przemysł zbrojeniowy. Warto, aby Polska poszła śladem Turcji.</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/03/28/ponad-2-miliony-uchodzcow-w-polsce-jak-uniknac-kryzysu-humanitarnego-i-napiec-spolecznych-podcast/"</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2 miliony uchodźców z Ukrainy dotarło już do Polski. Nie wszyscy w naszym kraju zostają, jednak już na każdym kroku widać skalę wyzwań, które nas czekają. Jak w tej ekstraordynaryjnej sytuacji odnajdują się samorządowcy? ak wygląda ich współpraca z rządem?</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/03/29/polityka-prorodzinna-zaczyna-sie-w-pracy-jak-panstwo-moze-lepiej-wspierac-rodzicow-i-pracodawcow/"</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Badania pokazują, że jedną z przyczyn niskiej dzietności są zmiany sposobu życia. Coraz większe zaangażowanie w pracę oznacza coraz mniej czasu dla rodziny. Dlatego jednym z wyzwań jest stworzenie środowiska pracy, które sprzyja jednoczesnemu wychowywaniu dzieci.</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/03/29/rosyjskie-uderzenie-na-polske-mozliwe-ale-nie-powinno-wywolywac-paniki/"</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Odkąd front utknął, a rosyjska armia nie czyni żadnych postępów, sytuacja dla Moskwy staje się coraz trudniejsza. W takiej sytuacji Rosjanie mogą paradoksalnie chcieć eskalować konflikt, żeby zmusić NATO do rozmów. Punktowy atak, np. na Polskę, jest możliwy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/03/30/franciszek-to-anarchista-pacyfista-i-naiwniak-wojna-na-ukrainie-uniewaznia-fundamenty-liberalnego-katolicyzmu/"</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Wypowiedzi Papieża Franciszka przypominają doktrynę Lwa Tołstoja – anarchisty, pacyfisty i człowieka, któremu można zarzucać skrajną naiwność. Takie stanowisko osoby zasiadającej na Stolicy Piotrowej jest nie tylko błędne, jest nie tylko naiwne, ale i zwyczajnie szkodliwe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/03/30/premier-morawiecki-zapowiada-do-konca-roku-koniec-z-importem-rosyjskiego-wegla-gazu-i-ropy/"</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Dziś Polska przedstawiła najbardziej radykalny w Europie plan odchodzenia od rosyjskich surowców. Już na przełomie kwietnia i maja Polska zakończy import węgla z Rosji, a w przypadku gazu i ropy ma się to wydarzyć do końca tego roku.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/03/30/rosnace-czynsze-i-krotkie-umowy-czy-najem-mieszkaniowy-da-sie-ucywilizowac/"</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>W 2019 r. 84,2% obywateli Polski mieszkało w lokalach własnościowych. Liczba ta bywa przywoływana jako dowód na przywiązanie Polaków do własności. Czy tak rzeczywiście jest?</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/03/31/byle-pozbyc-sie-tego-cholernego-putina-czy-nieimperialna-rosja-jest-mozliwa/"</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Czy odejście Putina będzie oznaczać koniec „putinizmu”, czy tylko pozorowaną transformację pod hasłem naprawiania błędów i wypaczeń? Czy istnieją w Rosji kontr-elity zdolne do czegoś więcej niż odmalowania fasady?</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/03/31/pogon-za-brakujacymi-mieszkaniami-dlaczego-polityka-mieszkaniowa-jest-wciaz-nieskuteczna/"</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Jakub Kucharczuk zapowiada najnowszy raport CAKJ pt. „Lokalna alternatywa. Jak wybudować w Polsce mieszkania?”</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/03/31/serial-krakowskie-potwory-skonczylo-sie-jak-zwykle-spektakularna-klapa/"</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>„Krakowskie potwory” można podsumować wypowiedzią, która już od jakiegoś czasu krąży w internecie: „Może aktorstwo jest drewniane i nie ma fabuły, ale przynajmniej dialogi są kompletnie niesłyszalne”.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/04/01/inicjatywa-wielkich-jezior-mazurskich-miejscowe-samorzady-walcza-o-nowych-turystow/"</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Mazury mogą zaoferować wiele – zapewnienie oferty wypoczynku połączonego z poprawą stanu zdrowia nie tylko turystom, ale również stałym rezydentom, chociażby takim, którzy w wieku senioralnym będą szukali miejsc, gdzie będą mogli godnie żyć.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/04/02/koniec-pandemii-w-polsce-od-naglej-i-niespodziewanej-smierci-zachowaj-nas-lewiatanie/"</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Piotr Kaszczyszyn pisze o strachu Zachodu przed ludzką śmiertelnością i Kapitanie Państwo, które miało nas uratować od wirusa</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/04/02/protesty-na-niemieckich-ulicach-minister-finansow-zapowiada-subsydiowanie-cen-paliw/"</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Kierowcy wraz ze swoimi ciężarówkami protestują przeciwko wysokim cenom paliwa w Niemczech. Protesty odbywają się w Berlinie, Brandenburgu, Hamburgu i innych miastach.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/04/03/wybory-na-wegrzech-orban-i-fidesz-kontra-opozycyjna-reszta-swiata-kto-wygra/"</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Węgrzy w kraju i za granicą oddają dzisiaj swój głos w wyborach parlamentarnych. Na przeciwko siebie staną rządzący nieprzerwanie od 2010 r. sojusz Fideszu z chadecką partią KDNP oraz zjednoczenie sześciu partii pod przywództwem Pétera Márki-Zaya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/04/04/bojkotuj-rosyjskie-kupuj-ukrainskie-lista-ukrainskich-produktow-i-firm-dzialajacych-w-polsce/"</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Mateusz Perowicz przedstawia sposoby wsparcia ukraińskich przedsiębiorstw funkcjonujących w naszym kraju</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/2022/04/04/czy-milenialsi-maja-gdzie-mieszkac-opowiesc-o-rynku-mieszkaniowym-z-perspektywy-mlodych-ludzi-podcast/"</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Panuje przekonanie, że młody człowiek w pewnym momencie powinien już opuścić swoich rodziców i pójść na własne. Niestety, łatwiej powiedzieć, trudniej zrobić. Jak to wygląda w praktyce? Czy wystarczy po prostu chcieć i poszukać, aby móc się wyprowadzić?</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/czytaj-regularnie/"</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Newsletter</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/kalkulator-darowizn/"</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Kalkulator darowizn</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/o-klubie-jagiellonskim/"</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>O Klubie Jagiellońskim</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/o-klubie-jagiellonskim/about-the-jagiellonian-club-english/"</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>About the Jagiellonian Club [ENGLISH]</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/o-klubie-jagiellonskim/dane-dokumenty-i-sprawozdania/"</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Dane, dokumenty i sprawozdania</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/o-klubie-jagiellonskim/krotka-historia/"</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Krótka historia</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/oddzialy/gdansk/"</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Gdańsk</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/oddzialy/katowice/"</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Katowice</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/oddzialy/krakow/"</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Kraków</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/oddzialy/oddzial-wroclaw/"</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Wrocław</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/oddzialy/poznan/"</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Poznań</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/oddzialy/warszawa/"</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Warszawa</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/page/2/"</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Następna strona »</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/polityka-prywatnosci-i-regulamin/"</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Polityka prywatności</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/akademia-nowoczesnego-patriotyzmu/"</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Akademia Nowoczesnego Patriotyzmu</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/aplikacja-pola/"</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Aplikacja Pola</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/centrum-analiz/"</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Centrum Analiz KJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/lokalna-osr/"</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Lokalna OSR</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/nawigator-legislacyjny-narzedzie-wsparcia-dla-biznesu/"</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Nawigator legislacyjny - narzędzie wsparcia dla biznesu</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/noc-ksiazki/"</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Noc książki</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/oferta-biznesowa-centrum-analiz-klubu-jagiellonskiego/"</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Oferta dla biznesu</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/pressje/"</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Pressje</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/projekty/v4-and-germany-round-table/"</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>V4 and Germany Round Table</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/publikacje/lokalna-alternatywa-jak-wybudowac-w-polsce-brakujace-mieszkania/"</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Lokalna alternatywa. Jak wybudować w Polsce brakujące mieszkania?</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/publikacje/porzuccie-zludzenia-10-mitow-o-putinowskiej-rosji/"</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Porzućcie złudzenia. 10 mitów o putinowskiej Rosji</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/publikacje/rzad-pod-lupa-ranking-polityk-publicznych-2021/"</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Rząd pod lupą. Ranking polityk publicznych 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/publikacje/skad-sie-wezma-przyszli-czempioni-polskiej-gospodarki-znaczenie-rynku-kapitalu-wlascicielskiego-dla-rozwoju-gospodarczego-i-cywilizacyjnego-polski/"</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Skąd się wezmą przyszli czempioni polskiej gospodarki? Znaczenie rynku kapitału właścicielskiego dla rozwoju gospodarczego i cywilizacyjnego Polski</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/publikacje/teka-57-nowa-chadecja/"</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Teka 57: Nowa chadecja</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/publikacje/teka-58-pobozny-antyklerykalizm/"</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Teka 58: Pobożny antyklerykalizm</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/publikacje/teka-59-katolicki-gender/"</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Teka 59: Katolicki gender</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/publikacje/zielony-ascetyzm/"</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Zielony ascetyzm</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://klubjagiellonski.pl/zbiorka/wesprzyj-nas/"</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Wspieram</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://twitter.com/intent/tweet?url=https%3A%2F%2Fanchor.fm%2Fandrzej-kohut%2Fepisodes%2FCo-Amerykanie-sdz-o-wojnie-na-Ukrainie-e1gfagb&amp;amp;text=Co%20Amerykanie%20s%C4%85dz%C4%85%20o%20wojnie%20na%20Ukrainie%3F"</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://twitter.com/intent/tweet?url=https%3A%2F%2Fanchor.fm%2Fklub-jagiellonski%2Fepisodes%2FKaczyski-i-Morawiecki-w-Kijowie--Zeenski-w-Sejmie--PO-CO--Wyprawa-kijowska-2022-roku--Piotr-Trudnowski--KluboTygodnik-e1fpspn&amp;amp;text=Kaczy%C5%84ski%20i%20Morawiecki%20w%20Kijowie%2C%20Ze%C5%82enski%20w%20Sejmie.%20PO%20CO%3F%20Wyprawa%20kijowska%202022%20roku%20%7C%20Piotr%20Trudnowski%20%7C%20KluboTygodnik"</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://twitter.com/intent/tweet?url=https%3A%2F%2Fanchor.fm%2Fkultura-poswiecona%2Fepisodes%2FCzy-papie-zachowuje-si-jak-ruski-agent--Prawosawie-a-ekumenizm-e1gj4vi&amp;amp;text=Czy%20papie%C5%BC%20zachowuje%20si%C4%99%20jak%20ruski%20agent%3F%20Prawos%C5%82awie%20a%20ekumenizm"</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://twitter.com/intent/tweet?url=https%3A%2F%2Fanchor.fm%2Fmiedzymiastowo%2Fepisodes%2FCzy-millenialsi-maj-gdzie-mieszka--Opowie-o-rynku-mieszkaniowym-z-perspektywy-modych-ludzi-e1f6i9j&amp;amp;text=Czy%20millenialsi%20maj%C4%85%20gdzie%20mieszka%C4%87%3F%20Opowie%C5%9B%C4%87%20o%20rynku%20mieszkaniowym%20z%20perspektywy%20m%C5%82odych%20ludzi"</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://twitter.com/intent/tweet?url=https%3A%2F%2Fanchor.fm%2Fsceptech%2Fepisodes%2F72-Rosja-jest-uzaleniona-od-importu-technologii--Czy-wynajdzie-koo-na-nowo--Iwona-Winiewska-e1glmeo&amp;amp;text=%2372%20Rosja%20jest%20uzale%C5%BCniona%20od%20importu%20technologii.%20Czy%20wynajdzie%20ko%C5%82o%20na%20nowo%3F%20%5BIwona%20Wi%C5%9Bniewska%5D"</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://twitter.com/klubjagiellonsk"</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://www.facebook.com/KJagiellonski/"</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://www.facebook.com/sharer.php?u=https%3A%2F%2Fanchor.fm%2Fandrzej-kohut%2Fepisodes%2FCo-Amerykanie-sdz-o-wojnie-na-Ukrainie-e1gfagb"</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://www.facebook.com/sharer.php?u=https%3A%2F%2Fanchor.fm%2Fklub-jagiellonski%2Fepisodes%2FKaczyski-i-Morawiecki-w-Kijowie--Zeenski-w-Sejmie--PO-CO--Wyprawa-kijowska-2022-roku--Piotr-Trudnowski--KluboTygodnik-e1fpspn"</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://www.facebook.com/sharer.php?u=https%3A%2F%2Fanchor.fm%2Fkultura-poswiecona%2Fepisodes%2FCzy-papie-zachowuje-si-jak-ruski-agent--Prawosawie-a-ekumenizm-e1gj4vi"</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://www.facebook.com/sharer.php?u=https%3A%2F%2Fanchor.fm%2Fmiedzymiastowo%2Fepisodes%2FCzy-millenialsi-maj-gdzie-mieszka--Opowie-o-rynku-mieszkaniowym-z-perspektywy-modych-ludzi-e1f6i9j"</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://www.facebook.com/sharer.php?u=https%3A%2F%2Fanchor.fm%2Fsceptech%2Fepisodes%2F72-Rosja-jest-uzaleniona-od-importu-technologii--Czy-wynajdzie-koo-na-nowo--Iwona-Winiewska-e1glmeo"</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://www.linkedin.com/shareArticle?mini=true&amp;amp;url=https%3A%2F%2Fanchor.fm%2Fandrzej-kohut%2Fepisodes%2FCo-Amerykanie-sdz-o-wojnie-na-Ukrainie-e1gfagb"</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://www.linkedin.com/shareArticle?mini=true&amp;amp;url=https%3A%2F%2Fanchor.fm%2Fklub-jagiellonski%2Fepisodes%2FKaczyski-i-Morawiecki-w-Kijowie--Zeenski-w-Sejmie--PO-CO--Wyprawa-kijowska-2022-roku--Piotr-Trudnowski--KluboTygodnik-e1fpspn"</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://www.linkedin.com/shareArticle?mini=true&amp;amp;url=https%3A%2F%2Fanchor.fm%2Fkultura-poswiecona%2Fepisodes%2FCzy-papie-zachowuje-si-jak-ruski-agent--Prawosawie-a-ekumenizm-e1gj4vi"</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://www.linkedin.com/shareArticle?mini=true&amp;amp;url=https%3A%2F%2Fanchor.fm%2Fmiedzymiastowo%2Fepisodes%2FCzy-millenialsi-maj-gdzie-mieszka--Opowie-o-rynku-mieszkaniowym-z-perspektywy-modych-ludzi-e1f6i9j"</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/href="https://www.linkedin.com/shareArticle?mini=true&amp;amp;url=https%3A%2F%2Fanchor.fm%2Fsceptech%2Fepisodes%2F72-Rosja-jest-uzaleniona-od-importu-technologii--Czy-wynajdzie-koo-na-nowo--Iwona-Winiewska-e1glmeo"</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsklubjagiellonskipl.xlsx
+++ b/database/httpsklubjagiellonskipl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B274"/>
+  <dimension ref="A1:B327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3505,6 +3505,562 @@
       </c>
       <c r="B274" t="inlineStr"/>
     </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/andrzej-kohut/episodes/Czy-aborcja-w-USA-moe-si-sta-nielegalna-e1ieum8</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Czy aborcja w USA może się stać nielegalna?</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/klub-jagiellonski/episodes/Konfederacja-moe-rzdzi-dziki-Tuskowi--Sondae--jedna-lista--dwa-bloki--polaryzacja--Piotr-Trudnowski--KluboTygodnik-e1iq5ra</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Konfederacja może rządzić… dzięki Tuskowi. Sondaże, jedna lista, dwa bloki, polaryzacja | Piotr Trudnowski | KluboTygodnik</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/kultura-poswiecona/episodes/Bg-w-filmach-Martina-Scorsese--Odcinek-z-ukaszem-Adamskim-e1iocll</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Bóg w filmach Martina Scorsese. Odcinek z Łukaszem Adamskim</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/miedzymiastowo/episodes/Czy-najem-instytucjonalny-ucywilizuje-rynek-najmu-w-Polsce-e1ijd2o</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Czy najem instytucjonalny ucywilizuje rynek najmu w Polsce?</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/s/17471438/podcast/play/52064792/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-4-16%2F265825301-44100-2-d3d81baf5938f.m4a</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/s/18b50320/podcast/play/52019277/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-4-15%2F52e6cf4e-90f9-f03e-e7ba-2660d595b695.mp3</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/s/322771a8/podcast/play/51918984/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-4-12%2F8fa6b492-56e1-7527-6a04-32fcce8a7ec5.mp3</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/s/4a321b04/podcast/play/52228213/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-4-19%2F266517094-44100-2-05b0af77a4fdb.m4a</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/s/6f858d8c/podcast/play/52286762/https%3A%2F%2Fd3ctxlq1ktw2nl.cloudfront.net%2Fstaging%2F2022-4-20%2F266760139-44100-2-7b38180f696bc.m4a</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>https://anchor.fm/sceptech/episodes/75-mier-hase-nadejdzie-jutro-e1ii0kd</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>#75 Śmierć (haseł) nadejdzie jutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/04/29/krystyna-pawlowicz-ewa-letowska-i-zjednoczenie-nadzwyczajnej-kasty-czyli-dlaczego-pis-nie-zreformuje-sadow/</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>artykuł o jawności majątkowej sędziów</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/05/06/czy-polska-stanie-sie-hubem-energetycznym-w-regionie/</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Polska mogłaby pełnić rolę energetycznego hubu. To szczególnie ważne w perspektywie niedawno ogłoszonej przez Komisję Europejską propozycji embarga na ropę - gdański naftoport jest w stanie zaspokoić potrzeby polskich, ale również częściowo niemieckich rafinerii.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/05/08/serial-euforia-i-krypto-konserwatyzm-hbo-podcast/</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>„Sex Education” redukuje osobę do upodobań seksualnych. Zupełnie inaczej jest w „Euforii”, serialu, który dotyka egzystencji współczesnego człowieka. Czy diagnoza tej produkcji jest konserwatywna? Odpowiedzi poszukują Konstanty Pilawa, Piotr Kaszczyszyn i Bartosz Brzyski.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/05/10/bojkot-czesciowo-pozorowany-leroy-kremlin-traci-inne-firmy-nie/</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Podobno firmy, które nie opuściły terenu Federacji Rosyjskiej, znalazły się na czarnej liście świadomych konsumentów. Pojawiały się apele o to, aby nie wspierać przedsiębiorstw, które nadal prowadzą działalność w Rosji. Dane finansowe pokazują, że to tylko...</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/05/11/mieszkalnictwo-osadnictwo-transport-bezpieczenstwo-uchodzcy-wywolaja-zasadnicze-zmiany/</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Wojna na Ukrainie i spowodowany nią napływ uchodźców może być katalizatorem przemian przestrzennych i ekonomicznych w miastach. Jeśli skorzystamy z rodzących się możliwości, możemy wywalczyć dla nas oraz kolejnych pokoleń miasta bardziej zrównoważone, sprawiedliwe i odporne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/05/11/uber-bolt-airbnb-ciemna-strona-ekonomii-wspoldzielenia-podcast/</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Aplikacje, takie jak Uber, Airbnb czy Bolt, są tylko pośrednikami, które kojarzą oferujących usługi oraz nabywców, uciekając od odpowiedzialności za występujące problemy. A tych jest sporo. Coraz częściej mówi się o przemocy seksualnej w przewozach osobowych.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/05/11/ustawa-zniesc-kryzys-ojcostwa-parlament-na-florydzie-podejmuje-wyzwanie/</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Ron DeSantis, republikański gubernator Florydy, w połowie kwietnia podpisał ustawę otwierającą fundusz warty 70 mln dolarów na rzecz wspierania i promowania ojcostwa. Czy pieniędzmi i przepisami można zażegnać kryzys?</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/05/12/poganin-i-ideowy-patron-pis-u-portretujemy-j-m-rymkiewicza-podcast/</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Radykalny republikanin odsłaniający przed nami istotę polskości, czy może raczej neopoganin prowadzący polskich konserwatystów na manowce? Konstanty Pilawa, Piotr Kaszczyszyn oraz Jan Maciejewski zastanawiają się na ile J.M. Rymkiewicz odkrywa przed nami prawdę o...</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/05/12/polacy-wola-tvn-od-tvp-historycznie-niskie-zaufanie-do-publicznego-nadawcy/</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Badania CBOS nie pozostawiają złudzeń – Polacy negatywnie oceniają działalność TVP. Największa konkurencja telewizji Jacka Kurskiego, TVN, cieszy się zdecydowanie wyższym zaufaniem.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/05/12/zlodziejstwo-przy-likwidacji-bylo-straszne-fragment-ksiazki-nie-ma-i-nie-bedzie-magdaleny-okraski/</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>W Wałbrzychu wiele ulic prowadzi na przykopalniane osiedla na obrzeżach, które stanowiły kiedyś bramę do świata pracy tysięcy osób. Dziś, gdy tych kopalń – a często i tych ludzi – w mieście nie ma, ruch i gwar w okolicy zanikł.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/05/14/konserwatorzy-glownie-walcza-z-wlascicielami-i-samorzadowcami-o-przetrwanie-historycznych-obiektow/</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Przez te dwa i pół roku, kiedy byłam wojewódzkim konserwatorem, zastanawiałam się, czy przyjdzie do mnie kiedyś człowiek, który powie, że chce ratować zabytki i że wszystko, czego ode mnie potrzebuje, to formalne wsparcie. W ostatni dzień mojego urzędowania ktoś taki się zjawił.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/05/15/bronmy-konserwatywnego-modelu-meskosci-macho-incel-despota-to-marne-karykatury/</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Siła, asertywność, rola żywiciela rodziny i większe libido – to najczęściej pojawiające się wyróżniki męskości. Tymczasem cechą dla konserwatywnie rozumianej męskości jest zużywanie siebie i stwarzanie świata. Bez poświęcenia sprawie nie ma mężczyzny, są tylko karykatury.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/05/16/robin-hood-czy-piractwo-proces-sci-huba-moze-zmienic-oblicze-nauki/</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Wielkie wydawnictwa pozywają Sci-Huba o kradzież własności intelektualnej, co w ścisłym sensie jest prawdą. Wydaje się, że środowisko naukowe sprzyja w tym wypadku pirackiemu serwisowi, który jest uważany za Robin Hooda świata nauki. Proces może być przełomowy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/05/16/sposob-na-tansze-mieszkania-kanada-walczy-z-kolekcjonerami-lokali/</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Od 1 stycznia 2023 roku w Vancouver obowiązywać ma nowa stawka podatku od pustostanów. Właściciele pustych mieszkań będą musieli zapłacić 5% ich wartości. To kolejna podwyżka tego podatku.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/05/17/koniec-ery-majchrowskiegodebata/</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Prezydent Jacek Majchrowski rządzi już 5 kadencję. Co jest przyczyną hegemonii polityka? Dlaczego nie zaszkodziły mu różne kontrowersje i konflikty? Jaki będzie Kraków bez Majchrowskiego?</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/05/17/polska-europejskim-liderem-i-drugim-na-swiecie-eksporterem-duzego-agd/</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Polska jest liderem produkcji sprzętu AGD w Europie. W eksporcie ustępujemy tylko Chinom. Czy ta tendencja się utrzyma? Wszystko wskazuje na to, że nie. Powrót do stylu życia sprzed pandemii, wojna w Ukrainie i rosnące ceny surowców to główne powody pesymistycznych...</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/05/17/skutki-dla-polski-zmniejszenie-produkcji-i-dochodow-rolnikow-oraz-wzrost-cen-zywnosci/</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Kierunek zmian wyznaczany przez Europejski Zielony Ład wydaje się nieunikniony. Jednocześnie polskie rolnictwo staje przed szeregiem wyzwań związanych z implementacją programu. Już dziś powinniśmy podjąć odpowiednie działania by zoptymalizować proces wdrażania EZŁ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/05/18/co-zmienii-wojna-w-zielonej-rewolucji-ue-loskot-strachota-wrobel-musialek/</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Europejski Zielony Ład ma przynieść krajom członkowskim prawdziwą rewolucję energetyczną i transportową. Jednak wojna sprawiła, że pojawiły się problemy, które obecnie wszystkim spędzają sen z powiem. Czy zatem Europejski Zielony Ład wciąż jest możliwy do...</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/05/18/czeka-nas-epidemia-odry-poziom-wyszczepienia-polskich-dzieci-spada-u-ukrainskich-jest-jeszcze-gorzej/</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Coraz więcej rodziców unika obowiązku szczepienia swoich dzieci przeciwko chorobom zakaźnym. W konsekwencji społeczeństwo traci odporność zbiorową i staje się bardziej podatne na choroby, które do niedawna nie zagrażały zdrowiu publicznemu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/05/18/rosyjska-ruletka-erdogana-turcja-jest-za-a-nawet-przeciw-w-walce-z-putinem/</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Turcja od lat traktuje poszczególne zagadnienia w relacjach z Rosją jako osobne segmenty. Konflikt w jednym nie wyklucza rozwoju w drugim. Dzięki tej ambiwalentnej polityce Ankara może odgrywać rolę mediatora w wojnie Rosji z Ukrainę. Jednak sankcji przeciw Moskwie nie poprze.</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/05/19/wiezien-to-obywatel-drugiej-kategorii-historie-z-polskich-zakladow-karnych/</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Popełnienie przestępstwa nie pozbawia wszelkich praw. Więzień to wciąż człowiek, który może wymagać leczenia, ma potrzeby bezpieczeństwa i potrzeby fizjologiczne. Niestety polskie zakłady karne masowo te potrzeby ignorują.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/05/20/samorzady-nie-maja-kompetencji-ani-srodkow-aby-poradzic-sobie-z-unijnymi-planami-klimatycznymi/</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Samorządy nie mają kompetencji ani środków, aby poradzić sobie z unijnymi planami klimatycznymi</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/2022/05/22/polska-sztuka-wedlug-lewicy-wyciac-artystow-z-odmienna-wizja-swiata-i-udawac-ze-to-kwestia-jakosci/</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Łukasz Murzyn pisze, że działania PiS-u w kulturze trudno uznać za „dobrą zmianę”, ale restauracja systemu kastowego sprzed 2015 r. to również ślepa uliczka</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/projekty/forum-polsko-czeskie-2022/</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Forum Polsko-Czeskie 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/publikacje/lokalna-alternatywa-jak-wybudowac-w-polsce-brakujace-mieszkania/</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Lokalna alternatywa. Jak wybudować w Polsce brakujące mieszkania?</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/publikacje/teka-59-katolicki-gender/</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Teka 59: Katolicki gender</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>https://klubjagiellonski.pl/zbiorka/czerwcowka-klubu-jagiellonskiego-zaplanuj-z-nami-dlugi-weekend-i-odbierz-przedpremierowy-numer-pressji/</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Czerwcówka Klubu Jagiellońskiego: zaplanuj z nami długi weekend i odbierz przedpremierowy numer „Pressji”!</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>https://twitter.com/KrystPawlowicz/status/1520808861627785216</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>tweeta prof. Krystyny Pawłowicz</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>https://twitter.com/intent/tweet?url=https%3A%2F%2Fanchor.fm%2Fandrzej-kohut%2Fepisodes%2FCzy-aborcja-w-USA-moe-si-sta-nielegalna-e1ieum8&amp;amp;text=Czy%20aborcja%20w%20USA%20mo%C5%BCe%20si%C4%99%20sta%C4%87%20nielegalna%3F</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>https://twitter.com/intent/tweet?url=https%3A%2F%2Fanchor.fm%2Fklub-jagiellonski%2Fepisodes%2FKonfederacja-moe-rzdzi-dziki-Tuskowi--Sondae--jedna-lista--dwa-bloki--polaryzacja--Piotr-Trudnowski--KluboTygodnik-e1iq5ra&amp;amp;text=Konfederacja%20mo%C5%BCe%20rz%C4%85dzi%C4%87%E2%80%A6%20dzi%C4%99ki%20Tuskowi.%20Sonda%C5%BCe%2C%20jedna%20lista%2C%20dwa%20bloki%2C%20polaryzacja%20%7C%20Piotr%20Trudnowski%20%7C%20KluboTygodnik</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>https://twitter.com/intent/tweet?url=https%3A%2F%2Fanchor.fm%2Fkultura-poswiecona%2Fepisodes%2FBg-w-filmach-Martina-Scorsese--Odcinek-z-ukaszem-Adamskim-e1iocll&amp;amp;text=B%C3%B3g%20w%20filmach%20Martina%20Scorsese.%20Odcinek%20z%20%C5%81ukaszem%20Adamskim</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>https://twitter.com/intent/tweet?url=https%3A%2F%2Fanchor.fm%2Fmiedzymiastowo%2Fepisodes%2FCzy-najem-instytucjonalny-ucywilizuje-rynek-najmu-w-Polsce-e1ijd2o&amp;amp;text=Czy%20najem%20instytucjonalny%20ucywilizuje%20rynek%20najmu%20w%20Polsce%3F</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>https://twitter.com/intent/tweet?url=https%3A%2F%2Fanchor.fm%2Fsceptech%2Fepisodes%2F75-mier-hase-nadejdzie-jutro-e1ii0kd&amp;amp;text=%2375%20%C5%9Amier%C4%87%20(hase%C5%82)%20nadejdzie%20jutro</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/sharer.php?u=https%3A%2F%2Fanchor.fm%2Fandrzej-kohut%2Fepisodes%2FCzy-aborcja-w-USA-moe-si-sta-nielegalna-e1ieum8</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/sharer.php?u=https%3A%2F%2Fanchor.fm%2Fklub-jagiellonski%2Fepisodes%2FKonfederacja-moe-rzdzi-dziki-Tuskowi--Sondae--jedna-lista--dwa-bloki--polaryzacja--Piotr-Trudnowski--KluboTygodnik-e1iq5ra</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/sharer.php?u=https%3A%2F%2Fanchor.fm%2Fkultura-poswiecona%2Fepisodes%2FBg-w-filmach-Martina-Scorsese--Odcinek-z-ukaszem-Adamskim-e1iocll</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/sharer.php?u=https%3A%2F%2Fanchor.fm%2Fmiedzymiastowo%2Fepisodes%2FCzy-najem-instytucjonalny-ucywilizuje-rynek-najmu-w-Polsce-e1ijd2o</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/sharer.php?u=https%3A%2F%2Fanchor.fm%2Fsceptech%2Fepisodes%2F75-mier-hase-nadejdzie-jutro-e1ii0kd</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/shareArticle?mini=true&amp;amp;url=https%3A%2F%2Fanchor.fm%2Fandrzej-kohut%2Fepisodes%2FCzy-aborcja-w-USA-moe-si-sta-nielegalna-e1ieum8</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/shareArticle?mini=true&amp;amp;url=https%3A%2F%2Fanchor.fm%2Fklub-jagiellonski%2Fepisodes%2FKonfederacja-moe-rzdzi-dziki-Tuskowi--Sondae--jedna-lista--dwa-bloki--polaryzacja--Piotr-Trudnowski--KluboTygodnik-e1iq5ra</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/shareArticle?mini=true&amp;amp;url=https%3A%2F%2Fanchor.fm%2Fkultura-poswiecona%2Fepisodes%2FBg-w-filmach-Martina-Scorsese--Odcinek-z-ukaszem-Adamskim-e1iocll</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/shareArticle?mini=true&amp;amp;url=https%3A%2F%2Fanchor.fm%2Fmiedzymiastowo%2Fepisodes%2FCzy-najem-instytucjonalny-ucywilizuje-rynek-najmu-w-Polsce-e1ijd2o</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/shareArticle?mini=true&amp;amp;url=https%3A%2F%2Fanchor.fm%2Fsceptech%2Fepisodes%2F75-mier-hase-nadejdzie-jutro-e1ii0kd</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
